--- a/sample_data/report_files/data_model_channels_report.xlsx
+++ b/sample_data/report_files/data_model_channels_report.xlsx
@@ -9,30 +9,32 @@
   <sheets>
     <sheet name="Buguruni" sheetId="1" r:id="rId1"/>
     <sheet name="Ilala" sheetId="2" r:id="rId2"/>
-    <sheet name="Keko" sheetId="3" r:id="rId3"/>
+    <sheet name="Mburahati" sheetId="3" r:id="rId3"/>
     <sheet name="Temeke" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabata" sheetId="5" r:id="rId5"/>
-    <sheet name="Hananasif" sheetId="6" r:id="rId6"/>
-    <sheet name="Mabibo" sheetId="7" r:id="rId7"/>
-    <sheet name="Ndugumbi" sheetId="8" r:id="rId8"/>
-    <sheet name="Mzimuni" sheetId="9" r:id="rId9"/>
-    <sheet name="Msasani" sheetId="10" r:id="rId10"/>
-    <sheet name="Makumbusho" sheetId="11" r:id="rId11"/>
-    <sheet name="Magomeni" sheetId="12" r:id="rId12"/>
-    <sheet name="Manzese" sheetId="13" r:id="rId13"/>
-    <sheet name="Mchikichini" sheetId="14" r:id="rId14"/>
-    <sheet name="Kigogo" sheetId="15" r:id="rId15"/>
-    <sheet name="Vingunguti" sheetId="16" r:id="rId16"/>
-    <sheet name="Tandale" sheetId="17" r:id="rId17"/>
-    <sheet name="Makurumla" sheetId="18" r:id="rId18"/>
-    <sheet name="Mwananyamala" sheetId="19" r:id="rId19"/>
+    <sheet name="Mchikichini" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabata" sheetId="6" r:id="rId6"/>
+    <sheet name="Keko" sheetId="7" r:id="rId7"/>
+    <sheet name="Hananasif" sheetId="8" r:id="rId8"/>
+    <sheet name="Mabibo" sheetId="9" r:id="rId9"/>
+    <sheet name="Ndugumbi" sheetId="10" r:id="rId10"/>
+    <sheet name="Ubungo" sheetId="11" r:id="rId11"/>
+    <sheet name="Msasani" sheetId="12" r:id="rId12"/>
+    <sheet name="Makumbusho" sheetId="13" r:id="rId13"/>
+    <sheet name="Magomeni" sheetId="14" r:id="rId14"/>
+    <sheet name="Manzese" sheetId="15" r:id="rId15"/>
+    <sheet name="Mzimuni" sheetId="16" r:id="rId16"/>
+    <sheet name="Kigogo" sheetId="17" r:id="rId17"/>
+    <sheet name="Vingunguti" sheetId="18" r:id="rId18"/>
+    <sheet name="Tandale" sheetId="19" r:id="rId19"/>
+    <sheet name="Makurumla" sheetId="20" r:id="rId20"/>
+    <sheet name="Mwananyamala" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="12">
   <si>
     <t>blockage</t>
   </si>
@@ -605,25 +607,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="H2">
-        <v>173</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -631,16 +633,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -663,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -683,25 +685,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F5">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -748,25 +750,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="D2">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G2">
-        <v>271</v>
+        <v>512</v>
       </c>
       <c r="H2">
-        <v>223</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -774,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -806,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -826,25 +828,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="F5">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -891,25 +893,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="D2">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="H2">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -923,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -969,25 +971,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="F5">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1034,25 +1036,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="C2">
-        <v>522</v>
+        <v>258</v>
       </c>
       <c r="D2">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="E2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F2">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>545</v>
+        <v>271</v>
       </c>
       <c r="H2">
-        <v>310</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1060,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1092,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1112,25 +1114,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="F5">
-        <v>338</v>
+        <v>179</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>235</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1177,25 +1179,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1255,25 +1257,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1320,25 +1322,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="C2">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="D2">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="G2">
-        <v>248</v>
+        <v>545</v>
       </c>
       <c r="H2">
-        <v>187</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1346,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1355,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1378,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1390,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1398,25 +1400,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="E5">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="F5">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1463,25 +1465,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D2">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="H2">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1495,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1521,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1541,25 +1543,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F5">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1606,25 +1608,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H2">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1641,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1676,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1684,25 +1686,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="F5">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1749,25 +1751,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G2">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="H2">
-        <v>95</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1781,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1827,25 +1829,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1892,25 +1894,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>532</v>
+        <v>172</v>
       </c>
       <c r="D2">
-        <v>442</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>536</v>
+        <v>194</v>
       </c>
       <c r="H2">
-        <v>482</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1918,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1927,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1953,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1970,25 +1972,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="F5">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2139,6 +2141,292 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>297</v>
+      </c>
+      <c r="H2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>227</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>201</v>
+      </c>
+      <c r="E5">
+        <v>267</v>
+      </c>
+      <c r="F5">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>408</v>
+      </c>
+      <c r="C2">
+        <v>532</v>
+      </c>
+      <c r="D2">
+        <v>442</v>
+      </c>
+      <c r="E2">
+        <v>124</v>
+      </c>
+      <c r="F2">
+        <v>231</v>
+      </c>
+      <c r="G2">
+        <v>536</v>
+      </c>
+      <c r="H2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>127</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>322</v>
+      </c>
+      <c r="F5">
+        <v>305</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
@@ -2178,25 +2466,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H2">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2236,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2256,25 +2544,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2464,25 +2752,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="D2">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="H2">
-        <v>303</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2499,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2542,25 +2830,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2607,25 +2895,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="C2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H2">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2639,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2651,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2668,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2685,25 +2973,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="F5">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2750,25 +3038,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="D2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="E2">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="H2">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2782,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2794,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2808,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2820,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2828,25 +3116,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2893,25 +3181,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="G2">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="H2">
-        <v>87</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2919,16 +3207,16 @@
         <v>9</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2937,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2951,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2971,25 +3259,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="F5">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3036,25 +3324,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="D2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H2">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3068,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3080,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3094,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3106,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3114,25 +3402,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="F5">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
